--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ISGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,26 +753,26 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
-      </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
-        <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>200</v>
-      </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,20 +797,20 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -817,10 +830,16 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,7 +847,7 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -846,14 +865,14 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
-        <v>200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
       <c r="N10" s="3">
         <v>200</v>
       </c>
@@ -861,10 +880,16 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,28 +917,28 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>200</v>
-      </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>300</v>
@@ -920,13 +947,19 @@
         <v>300</v>
       </c>
       <c r="O12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P12" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,26 +1022,26 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>600</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>600</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1099,25 +1152,31 @@
         <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>900</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>900</v>
+      </c>
+      <c r="R17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1131,37 +1190,43 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1211,24 +1278,30 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
         <v>-200</v>
@@ -1243,31 +1316,37 @@
         <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,10 +1360,10 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,7 +1404,7 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
@@ -1328,34 +1413,40 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1365,15 +1456,15 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1383,11 +1474,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>10</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>10</v>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1554,7 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
@@ -1460,34 +1563,40 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1604,7 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
@@ -1504,34 +1613,40 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1739,19 +1878,25 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,7 +1904,7 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
@@ -1768,34 +1913,40 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +2004,7 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
@@ -1856,83 +2013,95 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I41" s="3">
+        <v>300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2167,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2179,60 +2376,72 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
-      </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
-        <v>200</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2352,19 +2573,25 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3">
-        <v>200</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
-      </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,10 +2889,10 @@
         <v>1200</v>
       </c>
       <c r="E57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G57" s="3">
         <v>1300</v>
@@ -2655,21 +2916,27 @@
         <v>1300</v>
       </c>
       <c r="N57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="O57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="P57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E58" s="3">
         <v>2200</v>
@@ -2681,23 +2948,23 @@
         <v>2200</v>
       </c>
       <c r="H58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -2705,86 +2972,98 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>1200</v>
       </c>
       <c r="O59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="E60" s="3">
         <v>4700</v>
       </c>
       <c r="F60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H60" s="3">
         <v>4500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4700</v>
       </c>
       <c r="I60" s="3">
         <v>4400</v>
       </c>
       <c r="J60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2400</v>
       </c>
       <c r="N60" s="3">
         <v>2500</v>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R60" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2825,66 +3110,78 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
       </c>
       <c r="F62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
       <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,13 +3324,19 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5200</v>
+        <v>5800</v>
       </c>
       <c r="E66" s="3">
         <v>5400</v>
@@ -3030,37 +3345,43 @@
         <v>5200</v>
       </c>
       <c r="G66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-134400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-134100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-133900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-133600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-133400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-133200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-132800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-132600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-131800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-131400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-131200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-130600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,7 +3964,7 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
@@ -3584,34 +3973,40 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,28 +4319,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -3925,19 +4358,25 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-600</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3968,11 +4409,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
@@ -3980,11 +4421,11 @@
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4113,14 +4572,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>200</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>200</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ISGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,11 +763,11 @@
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>200</v>
-      </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
@@ -771,11 +775,11 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
-        <v>200</v>
-      </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -809,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -836,10 +843,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,10 +857,10 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -871,11 +881,11 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
@@ -886,10 +896,13 @@
         <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,19 +921,20 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -929,10 +943,10 @@
         <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -941,7 +955,7 @@
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
@@ -953,13 +967,16 @@
         <v>300</v>
       </c>
       <c r="Q12" s="3">
+        <v>300</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,11 +1048,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1040,11 +1060,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>600</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1158,25 +1185,28 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1196,11 +1226,11 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
@@ -1208,25 +1238,28 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1284,28 +1318,31 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>-200</v>
-      </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
@@ -1322,31 +1359,34 @@
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1406,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1395,13 +1435,16 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
@@ -1410,43 +1453,46 @@
         <v>-300</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1462,12 +1508,12 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1480,8 +1526,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>10</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>10</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,13 +1594,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
@@ -1560,48 +1612,51 @@
         <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
@@ -1610,43 +1665,46 @@
         <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1884,24 +1954,27 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
@@ -1910,43 +1983,46 @@
         <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,13 +2071,16 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
@@ -2010,98 +2089,104 @@
         <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,22 +2226,23 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
@@ -2164,34 +2251,37 @@
         <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>200</v>
-      </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,28 +2330,31 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2270,28 +2363,31 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2358,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2382,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2390,58 +2489,64 @@
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>200</v>
-      </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2579,19 +2690,22 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
       </c>
       <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
-        <v>200</v>
-      </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
       <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,13 +3010,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>1200</v>
@@ -2895,7 +3026,7 @@
         <v>1200</v>
       </c>
       <c r="G57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>1300</v>
@@ -2922,7 +3053,7 @@
         <v>1300</v>
       </c>
       <c r="P57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Q57" s="3">
         <v>1400</v>
@@ -2930,16 +3061,19 @@
       <c r="R57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2200</v>
       </c>
       <c r="F58" s="3">
         <v>2200</v>
@@ -2954,19 +3088,19 @@
         <v>2200</v>
       </c>
       <c r="J58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1500</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2978,115 +3112,124 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1300</v>
       </c>
       <c r="M59" s="3">
         <v>1300</v>
       </c>
       <c r="N59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1000</v>
       </c>
       <c r="R59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3116,36 +3259,39 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>1300</v>
       </c>
       <c r="P61" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="Q61" s="3">
         <v>700</v>
       </c>
       <c r="R61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="S61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
       </c>
       <c r="F62" s="3">
+        <v>700</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
@@ -3154,7 +3300,7 @@
         <v>700</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3163,13 +3309,13 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
@@ -3178,10 +3324,13 @@
         <v>300</v>
       </c>
       <c r="R62" s="3">
+        <v>300</v>
+      </c>
+      <c r="S62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4200</v>
       </c>
       <c r="M66" s="3">
         <v>4200</v>
       </c>
       <c r="N66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-135000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-134700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-134100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-133900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-133600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-133400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-133200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-132800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-132600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-131800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-131400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-131200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-130600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,68 +4089,74 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
@@ -3970,43 +4165,46 @@
         <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4061,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,49 +4551,52 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-200</v>
-      </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4415,8 +4636,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -4427,8 +4648,8 @@
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4578,11 +4808,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>200</v>
-      </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>200</v>
-      </c>
       <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ISGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,11 +770,11 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>200</v>
-      </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
@@ -778,11 +782,11 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
-        <v>200</v>
-      </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -819,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -846,10 +853,13 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,10 +870,10 @@
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
@@ -884,11 +894,11 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
-        <v>200</v>
-      </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
@@ -899,10 +909,13 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -931,13 +945,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
@@ -946,10 +960,10 @@
         <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
@@ -958,7 +972,7 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>300</v>
@@ -970,13 +984,16 @@
         <v>300</v>
       </c>
       <c r="R12" s="3">
+        <v>300</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,11 +1071,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1063,11 +1083,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,19 +1178,20 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1188,36 +1215,39 @@
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1229,10 +1259,10 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1241,25 +1271,28 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1312,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1321,30 +1355,33 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
@@ -1362,31 +1399,34 @@
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1409,7 +1449,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1438,16 +1478,19 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
@@ -1456,43 +1499,46 @@
         <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1511,12 +1557,12 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1529,8 +1575,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>10</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>10</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,16 +1646,19 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
@@ -1615,51 +1667,54 @@
         <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
@@ -1668,43 +1723,46 @@
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,17 +1982,20 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1957,27 +2027,30 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
@@ -1986,43 +2059,46 @@
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,16 +2150,19 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
@@ -2092,101 +2171,107 @@
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,25 +2313,26 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
@@ -2254,34 +2341,37 @@
         <v>300</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>200</v>
-      </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,22 +2435,22 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2366,28 +2459,31 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2460,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2484,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
-        <v>200</v>
-      </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2693,19 +2804,22 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
-        <v>200</v>
-      </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
-        <v>200</v>
-      </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,16 +3141,17 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1200</v>
       </c>
       <c r="F57" s="3">
         <v>1200</v>
@@ -3029,7 +3160,7 @@
         <v>1200</v>
       </c>
       <c r="H57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I57" s="3">
         <v>1300</v>
@@ -3056,7 +3187,7 @@
         <v>1300</v>
       </c>
       <c r="Q57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="R57" s="3">
         <v>1400</v>
@@ -3064,19 +3195,22 @@
       <c r="S57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2200</v>
       </c>
       <c r="G58" s="3">
         <v>2200</v>
@@ -3091,19 +3225,19 @@
         <v>2200</v>
       </c>
       <c r="K58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1500</v>
       </c>
       <c r="N58" s="3">
         <v>1500</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3115,116 +3249,125 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1300</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
       </c>
       <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3262,39 +3405,42 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>1300</v>
       </c>
       <c r="Q61" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="R61" s="3">
         <v>700</v>
       </c>
       <c r="S61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="T61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>700</v>
       </c>
       <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
         <v>600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>700</v>
@@ -3303,7 +3449,7 @@
         <v>700</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3312,13 +3458,13 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
@@ -3327,10 +3473,13 @@
         <v>300</v>
       </c>
       <c r="S62" s="3">
+        <v>300</v>
+      </c>
+      <c r="T62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>4200</v>
       </c>
       <c r="N66" s="3">
         <v>4200</v>
       </c>
       <c r="O66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,52 +3957,55 @@
         <v>-135200</v>
       </c>
       <c r="E72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-135000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-134400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-134100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-133900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-133600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-133400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-133200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-132800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-132600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-131800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-131400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-131200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-130600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,74 +4281,80 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
@@ -4168,43 +4363,46 @@
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4263,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4639,8 +4860,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -4651,8 +4872,8 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4811,11 +5041,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>200</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>200</v>
-      </c>
       <c r="Q102" s="3">
+        <v>200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
-        <v>200</v>
-      </c>
       <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ISGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -773,26 +780,26 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>200</v>
-      </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>200</v>
-      </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>200</v>
+      </c>
+      <c r="V8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,31 +824,31 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -856,15 +869,21 @@
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -873,13 +892,13 @@
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -897,14 +916,14 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
-      </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
@@ -912,10 +931,16 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,7 +975,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -957,28 +984,28 @@
         <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
@@ -987,13 +1014,19 @@
         <v>300</v>
       </c>
       <c r="S12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T12" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>400</v>
+      </c>
+      <c r="V12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,52 +1081,58 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>600</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>600</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,25 +1230,27 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1218,43 +1271,49 @@
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>900</v>
       </c>
       <c r="T17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>900</v>
+      </c>
+      <c r="V17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
@@ -1262,37 +1321,43 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-700</v>
       </c>
       <c r="T18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,22 +1378,24 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1358,37 +1425,43 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
@@ -1402,31 +1475,37 @@
         <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1452,10 +1531,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1481,28 +1560,34 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1511,34 +1596,40 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1560,15 +1651,15 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1578,11 +1669,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>10</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>10</v>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,28 +1746,34 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1679,54 +1782,60 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
@@ -1735,34 +1844,40 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,23 +2118,29 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2030,39 +2169,45 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
       <c r="T32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
@@ -2071,34 +2216,40 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,28 +2304,34 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
@@ -2183,95 +2340,107 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,52 +2623,58 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2562,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2574,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2586,72 +2783,84 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
-        <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
-      </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
-        <v>200</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2807,19 +3028,25 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+      <c r="U49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
-        <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
-        <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
-      </c>
       <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,22 +3412,22 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>1200</v>
       </c>
       <c r="I57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K57" s="3">
         <v>1300</v>
@@ -3190,33 +3451,39 @@
         <v>1300</v>
       </c>
       <c r="R57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="S57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2200</v>
       </c>
       <c r="I58" s="3">
         <v>2200</v>
@@ -3228,23 +3495,23 @@
         <v>2200</v>
       </c>
       <c r="L58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -3252,110 +3519,122 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1100</v>
       </c>
       <c r="I59" s="3">
         <v>1200</v>
       </c>
       <c r="J59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1100</v>
       </c>
       <c r="R59" s="3">
         <v>1200</v>
       </c>
       <c r="S59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4600</v>
       </c>
       <c r="I60" s="3">
         <v>4700</v>
       </c>
       <c r="J60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L60" s="3">
         <v>4500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4700</v>
       </c>
       <c r="M60" s="3">
         <v>4400</v>
       </c>
       <c r="N60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2400</v>
       </c>
       <c r="R60" s="3">
         <v>2500</v>
@@ -3366,22 +3645,28 @@
       <c r="T60" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V60" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3408,22 +3693,28 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,55 +3722,61 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
+        <v>700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>900</v>
+      </c>
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>700</v>
       </c>
       <c r="J62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S62" s="3">
         <v>300</v>
       </c>
       <c r="T62" s="3">
+        <v>300</v>
+      </c>
+      <c r="U62" s="3">
+        <v>300</v>
+      </c>
+      <c r="V62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,25 +3955,31 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5200</v>
       </c>
       <c r="I66" s="3">
         <v>5400</v>
@@ -3673,37 +3988,43 @@
         <v>5200</v>
       </c>
       <c r="K66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-135200</v>
+        <v>-135400</v>
       </c>
       <c r="E72" s="3">
         <v>-135200</v>
       </c>
       <c r="F72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-135000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-134700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-134400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-134100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-133900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-133600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-133400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-133200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-132800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-132600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-131800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-131400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-131200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-130600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="E76" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="F76" s="3">
         <v>-5600</v>
       </c>
       <c r="G76" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,89 +4661,101 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
@@ -4375,34 +4764,40 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,20 +4818,22 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4465,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,40 +5186,46 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -4804,19 +5237,25 @@
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-600</v>
       </c>
       <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -4851,11 +5292,11 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4863,11 +5304,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
@@ -4875,11 +5316,11 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5044,14 +5503,14 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
-        <v>200</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,7 +769,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -786,11 +790,11 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>200</v>
-      </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
@@ -798,11 +802,11 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
-        <v>200</v>
-      </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -836,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -848,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -875,10 +882,13 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,7 +896,7 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -898,10 +908,10 @@
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -922,11 +932,11 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
-        <v>200</v>
-      </c>
       <c r="S10" s="3">
         <v>200</v>
       </c>
@@ -937,10 +947,13 @@
         <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -981,13 +995,13 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -996,10 +1010,10 @@
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
@@ -1008,7 +1022,7 @@
         <v>200</v>
       </c>
       <c r="Q12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
@@ -1020,13 +1034,16 @@
         <v>300</v>
       </c>
       <c r="U12" s="3">
+        <v>300</v>
+      </c>
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,17 +1133,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1131,11 +1151,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>600</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,19 +1268,19 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1277,25 +1304,28 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,20 +1333,20 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
@@ -1327,11 +1357,11 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
@@ -1339,25 +1369,28 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1431,19 +1465,22 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,20 +1488,20 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
@@ -1481,31 +1518,34 @@
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1537,7 +1577,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,16 +1618,16 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
@@ -1593,43 +1636,46 @@
         <v>-300</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
-        <v>-200</v>
-      </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1657,12 +1703,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1675,8 +1721,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>10</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>10</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,16 +1813,16 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
@@ -1779,43 +1831,46 @@
         <v>-300</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
-        <v>-200</v>
-      </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,16 +1878,16 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
@@ -1841,43 +1896,46 @@
         <v>-300</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
-        <v>-200</v>
-      </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2136,14 +2206,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2175,19 +2245,22 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,16 +2268,16 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
@@ -2213,43 +2286,46 @@
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
-        <v>-200</v>
-      </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,16 +2398,16 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
@@ -2337,110 +2416,116 @@
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
-        <v>-200</v>
-      </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,34 +2573,35 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
@@ -2523,34 +2610,37 @@
         <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>200</v>
-      </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2629,22 +2722,22 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2653,28 +2746,31 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2765,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2789,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2797,70 +2896,76 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>200</v>
-      </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
-        <v>200</v>
-      </c>
       <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3034,19 +3145,22 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
-        <v>200</v>
-      </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
-        <v>200</v>
-      </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3418,10 +3549,10 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1200</v>
       </c>
       <c r="I57" s="3">
         <v>1200</v>
@@ -3430,7 +3561,7 @@
         <v>1200</v>
       </c>
       <c r="K57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L57" s="3">
         <v>1300</v>
@@ -3457,7 +3588,7 @@
         <v>1300</v>
       </c>
       <c r="T57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="U57" s="3">
         <v>1400</v>
@@ -3465,28 +3596,31 @@
       <c r="V57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E58" s="3">
         <v>3000</v>
       </c>
       <c r="F58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2200</v>
       </c>
       <c r="J58" s="3">
         <v>2200</v>
@@ -3501,19 +3635,19 @@
         <v>2200</v>
       </c>
       <c r="N58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1500</v>
       </c>
       <c r="Q58" s="3">
         <v>1500</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3525,72 +3659,78 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1300</v>
       </c>
       <c r="Q59" s="3">
         <v>1300</v>
       </c>
       <c r="R59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1000</v>
       </c>
       <c r="V59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,61 +3738,64 @@
         <v>5300</v>
       </c>
       <c r="E60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3669,7 +3812,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3699,48 +3842,51 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>1300</v>
       </c>
       <c r="T61" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="U61" s="3">
         <v>700</v>
       </c>
       <c r="V61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="W61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>700</v>
       </c>
       <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
         <v>600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>700</v>
@@ -3749,7 +3895,7 @@
         <v>700</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -3758,13 +3904,13 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
       </c>
       <c r="S62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T62" s="3">
         <v>300</v>
@@ -3773,10 +3919,13 @@
         <v>300</v>
       </c>
       <c r="V62" s="3">
+        <v>300</v>
+      </c>
+      <c r="W62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>4200</v>
       </c>
       <c r="Q66" s="3">
         <v>4200</v>
       </c>
       <c r="R66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S66" s="3">
         <v>3500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,16 +4466,19 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-135400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-135200</v>
       </c>
       <c r="F72" s="3">
         <v>-135200</v>
@@ -4313,52 +4487,55 @@
         <v>-135200</v>
       </c>
       <c r="H72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-135000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-134700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-134400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-133900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-133600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-133400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-133200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-132800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-132600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-131800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-131400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-131200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-130600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,16 +4938,16 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
@@ -4761,43 +4956,46 @@
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
-        <v>-200</v>
-      </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,14 +5028,14 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>-300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4868,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -5298,8 +5519,8 @@
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5310,8 +5531,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
@@ -5322,8 +5543,8 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5509,11 +5739,11 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>200</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
-        <v>200</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>200</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="R102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="T102" s="3">
+        <v>200</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
-        <v>200</v>
-      </c>
       <c r="V102" s="3">
+        <v>200</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,7 +776,7 @@
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
@@ -793,11 +797,11 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>200</v>
-      </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
@@ -805,11 +809,11 @@
         <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
-        <v>200</v>
-      </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -846,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -858,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -885,10 +892,13 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,7 +909,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -911,10 +921,10 @@
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -935,11 +945,11 @@
         <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
-        <v>200</v>
-      </c>
       <c r="T10" s="3">
         <v>200</v>
       </c>
@@ -950,10 +960,13 @@
         <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,13 +990,14 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -998,13 +1012,13 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
@@ -1013,10 +1027,10 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
@@ -1025,7 +1039,7 @@
         <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3">
         <v>300</v>
@@ -1037,13 +1051,16 @@
         <v>300</v>
       </c>
       <c r="V12" s="3">
+        <v>300</v>
+      </c>
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1136,17 +1156,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1154,11 +1174,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>600</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,31 +1285,32 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1307,49 +1334,52 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
@@ -1360,11 +1390,11 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
@@ -1372,25 +1402,28 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1429,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1468,43 +1502,46 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
@@ -1521,31 +1558,34 @@
         <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1620,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1609,28 +1649,31 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1639,43 +1682,46 @@
         <v>-300</v>
       </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1706,12 +1752,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1724,8 +1770,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>10</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>10</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,28 +1853,31 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1834,63 +1886,66 @@
         <v>-300</v>
       </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
@@ -1899,43 +1954,46 @@
         <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2209,14 +2279,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2248,39 +2318,42 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
@@ -2289,43 +2362,46 @@
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,28 +2465,31 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
@@ -2419,113 +2498,119 @@
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,28 +2670,28 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
@@ -2613,34 +2700,37 @@
         <v>300</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>200</v>
-      </c>
       <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2725,22 +2818,22 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2749,28 +2842,31 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2867,16 +2966,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2891,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,64 +3010,67 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
-        <v>200</v>
-      </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3148,19 +3259,22 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
-        <v>200</v>
-      </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
       </c>
       <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
-        <v>200</v>
-      </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3552,10 +3683,10 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1200</v>
       </c>
       <c r="J57" s="3">
         <v>1200</v>
@@ -3564,7 +3695,7 @@
         <v>1200</v>
       </c>
       <c r="L57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M57" s="3">
         <v>1300</v>
@@ -3591,7 +3722,7 @@
         <v>1300</v>
       </c>
       <c r="U57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="V57" s="3">
         <v>1400</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,22 +3742,22 @@
         <v>2900</v>
       </c>
       <c r="E58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F58" s="3">
         <v>3000</v>
       </c>
       <c r="G58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2200</v>
       </c>
       <c r="K58" s="3">
         <v>2200</v>
@@ -3638,19 +3772,19 @@
         <v>2200</v>
       </c>
       <c r="O58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1500</v>
       </c>
       <c r="R58" s="3">
         <v>1500</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3662,140 +3796,149 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1300</v>
       </c>
       <c r="R59" s="3">
         <v>1300</v>
       </c>
       <c r="S59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1000</v>
       </c>
       <c r="W59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E60" s="3">
         <v>5300</v>
       </c>
       <c r="F60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -3815,7 +3958,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3845,51 +3988,54 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>1300</v>
       </c>
       <c r="U61" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="V61" s="3">
         <v>700</v>
       </c>
       <c r="W61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="X61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>700</v>
       </c>
       <c r="K62" s="3">
+        <v>700</v>
+      </c>
+      <c r="L62" s="3">
         <v>600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>700</v>
       </c>
       <c r="M62" s="3">
         <v>700</v>
@@ -3898,7 +4044,7 @@
         <v>700</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3907,13 +4053,13 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
       </c>
       <c r="T62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U62" s="3">
         <v>300</v>
@@ -3922,10 +4068,13 @@
         <v>300</v>
       </c>
       <c r="W62" s="3">
+        <v>300</v>
+      </c>
+      <c r="X62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>4200</v>
       </c>
       <c r="R66" s="3">
         <v>4200</v>
       </c>
       <c r="S66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T66" s="3">
         <v>3500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,10 +4652,10 @@
         <v>-135600</v>
       </c>
       <c r="E72" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-135400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-135200</v>
       </c>
       <c r="G72" s="3">
         <v>-135200</v>
@@ -4490,52 +4664,55 @@
         <v>-135200</v>
       </c>
       <c r="I72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-135000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-134700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-133900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-133600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-133400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-133200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-132800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-132600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-131800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-131400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-131200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-130600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,64 +4924,67 @@
         <v>-5700</v>
       </c>
       <c r="E76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,98 +5048,104 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
@@ -4959,43 +5154,46 @@
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,14 +5230,14 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>-300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -5070,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,8 +5731,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
@@ -5522,8 +5743,8 @@
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
@@ -5546,8 +5767,8 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5742,11 +5972,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>200</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>200</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="S102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
-        <v>200</v>
-      </c>
       <c r="W102" s="3">
+        <v>200</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,7 +782,7 @@
         <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -800,11 +803,11 @@
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>200</v>
-      </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
@@ -812,11 +815,11 @@
         <v>200</v>
       </c>
       <c r="S8" s="3">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
-        <v>200</v>
-      </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
@@ -829,13 +832,16 @@
       <c r="X8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -844,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -856,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -868,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -895,15 +901,18 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
@@ -912,7 +921,7 @@
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
@@ -924,10 +933,10 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -948,11 +957,11 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
-        <v>200</v>
-      </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
@@ -963,10 +972,13 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,16 +1003,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1015,13 +1028,13 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
@@ -1030,10 +1043,10 @@
         <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
@@ -1042,7 +1055,7 @@
         <v>200</v>
       </c>
       <c r="S12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T12" s="3">
         <v>300</v>
@@ -1054,13 +1067,16 @@
         <v>300</v>
       </c>
       <c r="W12" s="3">
+        <v>300</v>
+      </c>
+      <c r="X12" s="3">
         <v>400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,17 +1178,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1177,11 +1196,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>600</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,25 +1321,25 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
@@ -1337,25 +1363,28 @@
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,26 +1392,26 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
@@ -1393,11 +1422,11 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
@@ -1405,25 +1434,28 @@
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,16 +1480,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1466,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1505,46 +1538,49 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
@@ -1561,31 +1597,34 @@
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1623,7 +1662,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1652,31 +1691,34 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
@@ -1685,43 +1727,46 @@
         <v>-300</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
-        <v>-200</v>
-      </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1755,12 +1800,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1773,8 +1818,8 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>10</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>10</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,31 +1904,34 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
@@ -1889,66 +1940,69 @@
         <v>-300</v>
       </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
-        <v>-200</v>
-      </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
@@ -1957,43 +2011,46 @@
         <v>-300</v>
       </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
-        <v>-200</v>
-      </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,17 +2330,20 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2282,14 +2351,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2321,42 +2390,45 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
@@ -2365,43 +2437,46 @@
         <v>-300</v>
       </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
-        <v>-200</v>
-      </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,31 +2543,34 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
@@ -2501,116 +2579,122 @@
         <v>-300</v>
       </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
-        <v>-200</v>
-      </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,40 +2746,41 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
@@ -2703,34 +2789,37 @@
         <v>300</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
-        <v>200</v>
-      </c>
       <c r="U41" s="3">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2821,22 +2913,22 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2845,28 +2937,31 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2969,16 +3067,16 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2993,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3013,64 +3114,67 @@
         <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
-        <v>200</v>
-      </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
-        <v>200</v>
-      </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
-        <v>200</v>
-      </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3262,19 +3372,22 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>200</v>
-      </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
-        <v>200</v>
-      </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
-        <v>200</v>
-      </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3686,10 +3816,10 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1200</v>
       </c>
       <c r="K57" s="3">
         <v>1200</v>
@@ -3698,7 +3828,7 @@
         <v>1200</v>
       </c>
       <c r="M57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N57" s="3">
         <v>1300</v>
@@ -3725,7 +3855,7 @@
         <v>1300</v>
       </c>
       <c r="V57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="W57" s="3">
         <v>1400</v>
@@ -3733,34 +3863,37 @@
       <c r="X57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
         <v>2900</v>
       </c>
       <c r="F58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G58" s="3">
         <v>3000</v>
       </c>
       <c r="H58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2200</v>
       </c>
       <c r="L58" s="3">
         <v>2200</v>
@@ -3775,19 +3908,19 @@
         <v>2200</v>
       </c>
       <c r="P58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1500</v>
       </c>
       <c r="S58" s="3">
         <v>1500</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3799,10 +3932,13 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3810,67 +3946,70 @@
         <v>2000</v>
       </c>
       <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1300</v>
       </c>
       <c r="S59" s="3">
         <v>1300</v>
       </c>
       <c r="T59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1000</v>
       </c>
       <c r="X59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,67 +4017,70 @@
         <v>5400</v>
       </c>
       <c r="E60" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F60" s="3">
         <v>5300</v>
       </c>
       <c r="G60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3952,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -3961,7 +4103,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3991,22 +4133,25 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>1300</v>
       </c>
       <c r="V61" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="W61" s="3">
         <v>700</v>
       </c>
       <c r="X61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,31 +4159,31 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>700</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
       </c>
       <c r="L62" s="3">
+        <v>700</v>
+      </c>
+      <c r="M62" s="3">
         <v>600</v>
-      </c>
-      <c r="M62" s="3">
-        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
@@ -4047,7 +4192,7 @@
         <v>700</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -4056,13 +4201,13 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
       </c>
       <c r="U62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V62" s="3">
         <v>300</v>
@@ -4071,10 +4216,13 @@
         <v>300</v>
       </c>
       <c r="X62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,67 +4443,70 @@
         <v>6000</v>
       </c>
       <c r="E66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>4200</v>
       </c>
       <c r="S66" s="3">
         <v>4200</v>
       </c>
       <c r="T66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U66" s="3">
         <v>3500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,22 +4813,25 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-135600</v>
+        <v>-135700</v>
       </c>
       <c r="E72" s="3">
         <v>-135600</v>
       </c>
       <c r="F72" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-135400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-135200</v>
       </c>
       <c r="H72" s="3">
         <v>-135200</v>
@@ -4667,52 +4840,55 @@
         <v>-135200</v>
       </c>
       <c r="J72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-135000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-134100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-133900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-133600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-133400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-133200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-132800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-132600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-131800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-131400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-131200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-130600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="E76" s="3">
         <v>-5700</v>
       </c>
       <c r="F76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,104 +5239,110 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
@@ -5157,43 +5351,46 @@
         <v>-300</v>
       </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
-        <v>-200</v>
-      </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5233,14 +5431,14 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>-300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -5272,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>-200</v>
-      </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -5746,8 +5966,8 @@
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5758,8 +5978,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5975,11 +6204,11 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>200</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>200</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="T102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="V102" s="3">
+        <v>200</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
-        <v>200</v>
-      </c>
       <c r="X102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,120 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
@@ -785,10 +793,10 @@
         <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -806,26 +814,26 @@
         <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>200</v>
-      </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
+        <v>200</v>
+      </c>
+      <c r="U8" s="3">
+        <v>200</v>
+      </c>
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
-        <v>200</v>
-      </c>
-      <c r="V8" s="3">
-        <v>200</v>
-      </c>
       <c r="W8" s="3">
         <v>200</v>
       </c>
@@ -835,55 +843,61 @@
       <c r="Y8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -904,10 +918,16 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -918,16 +938,16 @@
         <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -936,13 +956,13 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -960,14 +980,14 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
-        <v>200</v>
-      </c>
-      <c r="V10" s="3">
-        <v>200</v>
-      </c>
       <c r="W10" s="3">
         <v>200</v>
       </c>
@@ -975,10 +995,16 @@
         <v>200</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1047,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1031,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -1040,28 +1068,28 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
       </c>
       <c r="T12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V12" s="3">
         <v>300</v>
@@ -1070,13 +1098,19 @@
         <v>300</v>
       </c>
       <c r="X12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y12" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1181,32 +1221,32 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>600</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>600</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1321,31 +1375,31 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
@@ -1366,58 +1420,64 @@
         <v>400</v>
       </c>
       <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
-      </c>
-      <c r="W17" s="3">
-        <v>800</v>
-      </c>
-      <c r="X17" s="3">
-        <v>900</v>
       </c>
       <c r="Y17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
@@ -1425,37 +1485,43 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-700</v>
       </c>
       <c r="Y18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,28 +1558,28 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1541,52 +1609,58 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
@@ -1600,31 +1674,37 @@
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1665,10 +1745,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1694,43 +1774,49 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
@@ -1739,34 +1825,40 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1803,15 +1895,15 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1821,11 +1913,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>10</v>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>10</v>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,43 +2005,49 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
@@ -1952,69 +2056,75 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
@@ -2023,34 +2133,40 @@
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,29 +2482,29 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2393,54 +2533,60 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
-      </c>
       <c r="Y32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
@@ -2449,34 +2595,40 @@
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,43 +2698,49 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
@@ -2591,110 +2749,122 @@
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2916,52 +3102,58 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3070,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3082,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3094,21 +3292,27 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -3117,64 +3321,70 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
-        <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
-        <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
-      </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
-        <v>200</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3375,19 +3597,25 @@
         <v>0</v>
       </c>
       <c r="V49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3">
         <v>300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,16 +3916,22 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -3688,61 +3940,67 @@
         <v>300</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
-        <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
-        <v>200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>200</v>
-      </c>
       <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3819,22 +4081,22 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1200</v>
       </c>
       <c r="M57" s="3">
         <v>1200</v>
       </c>
       <c r="N57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P57" s="3">
         <v>1300</v>
@@ -3858,48 +4120,54 @@
         <v>1300</v>
       </c>
       <c r="W57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="X57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Y57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
         <v>2900</v>
       </c>
       <c r="F58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2200</v>
       </c>
       <c r="N58" s="3">
         <v>2200</v>
@@ -3911,23 +4179,23 @@
         <v>2200</v>
       </c>
       <c r="Q58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
@@ -3935,140 +4203,152 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2100</v>
       </c>
       <c r="G59" s="3">
         <v>2000</v>
       </c>
       <c r="H59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>1200</v>
       </c>
       <c r="O59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1100</v>
       </c>
       <c r="W59" s="3">
         <v>1200</v>
       </c>
       <c r="X59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4600</v>
       </c>
       <c r="N60" s="3">
         <v>4700</v>
       </c>
       <c r="O60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>4400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>4700</v>
       </c>
       <c r="R60" s="3">
         <v>4400</v>
       </c>
       <c r="S60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="T60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U60" s="3">
         <v>4100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4000</v>
-      </c>
-      <c r="U60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>2400</v>
       </c>
       <c r="W60" s="3">
         <v>2500</v>
@@ -4079,8 +4359,14 @@
       <c r="Y60" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4097,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4136,93 +4422,105 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>700</v>
       </c>
-      <c r="Y61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
       </c>
       <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>900</v>
       </c>
       <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>900</v>
+      </c>
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
       </c>
       <c r="O62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X62" s="3">
         <v>300</v>
       </c>
       <c r="Y62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,40 +4744,46 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F66" s="3">
         <v>6000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>5400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>5200</v>
       </c>
       <c r="N66" s="3">
         <v>5400</v>
@@ -4476,37 +4792,43 @@
         <v>5200</v>
       </c>
       <c r="P66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-136100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-135700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-135600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-135600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-135400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-135200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-135200</v>
       </c>
       <c r="J72" s="3">
         <v>-135200</v>
       </c>
       <c r="K72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="M72" s="3">
         <v>-135000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-134700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-134400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-134100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-133900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-133600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-133400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-133200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-132800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-132600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-131800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-131400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-131200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-130600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-5900</v>
       </c>
       <c r="H76" s="3">
         <v>-5700</v>
       </c>
       <c r="I76" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="J76" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="K76" s="3">
         <v>-5600</v>
       </c>
       <c r="L76" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,119 +5620,131 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
@@ -5363,34 +5753,40 @@
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5434,17 +5832,17 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>-300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -5473,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,55 +6270,61 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
@@ -5902,19 +6336,25 @@
         <v>-200</v>
       </c>
       <c r="V89" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-600</v>
       </c>
       <c r="Y89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5957,11 +6399,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -5969,11 +6411,11 @@
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5981,11 +6423,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
@@ -5993,11 +6435,11 @@
       <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6207,14 +6667,14 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,70 +7036,76 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>800</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
-      </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
-        <v>200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-200</v>
       </c>
       <c r="V102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,7 +785,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -799,7 +803,7 @@
         <v>300</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -820,11 +824,11 @@
         <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
-        <v>200</v>
-      </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
@@ -832,11 +836,11 @@
         <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
-        <v>200</v>
-      </c>
       <c r="X8" s="3">
         <v>200</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -873,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -885,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -897,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -924,10 +931,13 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,13 +945,13 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -950,7 +960,7 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -962,10 +972,10 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -986,11 +996,11 @@
         <v>200</v>
       </c>
       <c r="V10" s="3">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
-        <v>200</v>
-      </c>
       <c r="X10" s="3">
         <v>200</v>
       </c>
@@ -1001,10 +1011,13 @@
         <v>200</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,16 +1055,16 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1065,13 +1079,13 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
@@ -1080,10 +1094,10 @@
         <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
@@ -1092,7 +1106,7 @@
         <v>200</v>
       </c>
       <c r="V12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W12" s="3">
         <v>300</v>
@@ -1104,13 +1118,16 @@
         <v>300</v>
       </c>
       <c r="Z12" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,17 +1247,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1245,11 +1265,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>600</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,34 +1402,34 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
@@ -1426,25 +1453,28 @@
         <v>400</v>
       </c>
       <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,32 +1485,32 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
@@ -1491,11 +1521,11 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
@@ -1503,25 +1533,28 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1576,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1615,19 +1649,22 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1638,32 +1675,32 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
@@ -1680,31 +1717,34 @@
         <v>-200</v>
       </c>
       <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
-        <v>-200</v>
-      </c>
       <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1791,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1792,28 +1835,28 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
@@ -1822,43 +1865,46 @@
         <v>-300</v>
       </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1901,12 +1947,12 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1919,8 +1965,8 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>10</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>10</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2023,28 +2075,28 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
@@ -2053,43 +2105,46 @@
         <v>-300</v>
       </c>
       <c r="P26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
       <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2100,28 +2155,28 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
@@ -2130,43 +2185,46 @@
         <v>-300</v>
       </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2488,11 +2558,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2500,14 +2570,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2539,19 +2609,22 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2562,28 +2635,28 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
@@ -2592,43 +2665,46 @@
         <v>-300</v>
       </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
       <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2716,28 +2795,28 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
@@ -2746,125 +2825,131 @@
         <v>-300</v>
       </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
       <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,49 +3007,50 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
@@ -2972,34 +3059,37 @@
         <v>300</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
-        <v>200</v>
-      </c>
       <c r="X41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>400</v>
       </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3108,22 +3201,22 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -3132,28 +3225,31 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3274,16 +3373,16 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3298,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3306,17 +3405,20 @@
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
@@ -3327,64 +3429,67 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
-        <v>200</v>
-      </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
-        <v>200</v>
-      </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="Y46" s="3">
-        <v>200</v>
-      </c>
       <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3603,19 +3714,22 @@
         <v>0</v>
       </c>
       <c r="X49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>200</v>
-      </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>200</v>
-      </c>
       <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
-        <v>200</v>
-      </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
-        <v>200</v>
-      </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
       <c r="V54" s="3">
+        <v>200</v>
+      </c>
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4087,10 +4218,10 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>1100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1200</v>
       </c>
       <c r="N57" s="3">
         <v>1200</v>
@@ -4099,7 +4230,7 @@
         <v>1200</v>
       </c>
       <c r="P57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Q57" s="3">
         <v>1300</v>
@@ -4126,7 +4257,7 @@
         <v>1300</v>
       </c>
       <c r="Y57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Z57" s="3">
         <v>1400</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,34 +4277,34 @@
         <v>3100</v>
       </c>
       <c r="E58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2900</v>
       </c>
       <c r="H58" s="3">
         <v>2900</v>
       </c>
       <c r="I58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J58" s="3">
         <v>3000</v>
       </c>
       <c r="K58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2200</v>
       </c>
       <c r="O58" s="3">
         <v>2200</v>
@@ -4185,19 +4319,19 @@
         <v>2200</v>
       </c>
       <c r="S58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T58" s="3">
         <v>1800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1500</v>
       </c>
       <c r="V58" s="3">
         <v>1500</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4209,164 +4343,173 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2000</v>
       </c>
       <c r="G59" s="3">
         <v>2000</v>
       </c>
       <c r="H59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1300</v>
       </c>
       <c r="V59" s="3">
         <v>1300</v>
       </c>
       <c r="W59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>1000</v>
       </c>
       <c r="AA59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5400</v>
       </c>
       <c r="G60" s="3">
         <v>5400</v>
       </c>
       <c r="H60" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I60" s="3">
         <v>5300</v>
       </c>
       <c r="J60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4389,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -4398,7 +4541,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4428,22 +4571,25 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>1300</v>
       </c>
       <c r="Y61" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="Z61" s="3">
         <v>700</v>
       </c>
       <c r="AA61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,7 +4597,7 @@
         <v>700</v>
       </c>
       <c r="E62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
@@ -4460,31 +4606,31 @@
         <v>600</v>
       </c>
       <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>700</v>
       </c>
       <c r="O62" s="3">
+        <v>700</v>
+      </c>
+      <c r="P62" s="3">
         <v>600</v>
-      </c>
-      <c r="P62" s="3">
-        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
@@ -4493,7 +4639,7 @@
         <v>700</v>
       </c>
       <c r="S62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -4502,13 +4648,13 @@
         <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>200</v>
       </c>
       <c r="X62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y62" s="3">
         <v>300</v>
@@ -4517,10 +4663,13 @@
         <v>300</v>
       </c>
       <c r="AA62" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6000</v>
       </c>
       <c r="G66" s="3">
         <v>6000</v>
       </c>
       <c r="H66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4500</v>
-      </c>
-      <c r="U66" s="3">
-        <v>4200</v>
       </c>
       <c r="V66" s="3">
         <v>4200</v>
       </c>
       <c r="W66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X66" s="3">
         <v>3500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,31 +5335,34 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-136300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-136100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-135900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-135700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-135600</v>
       </c>
       <c r="H72" s="3">
         <v>-135600</v>
       </c>
       <c r="I72" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-135400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-135200</v>
       </c>
       <c r="K72" s="3">
         <v>-135200</v>
@@ -5197,52 +5371,55 @@
         <v>-135200</v>
       </c>
       <c r="M72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-135000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-134700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-134400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-134100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-133900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-133600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-133400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-133200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-132800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-132600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-131800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-131400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-131200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-130600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-5700</v>
       </c>
       <c r="H76" s="3">
         <v>-5700</v>
       </c>
       <c r="I76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J76" s="3">
         <v>-5900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5720,28 +5915,28 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
@@ -5750,43 +5945,46 @@
         <v>-300</v>
       </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
       <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5838,14 +6037,14 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>-300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -5877,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>-200</v>
-      </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>-200</v>
-      </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
@@ -6441,8 +6662,8 @@
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6673,11 +6903,11 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>300</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,76 +7282,79 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>10</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>200</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>800</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
-        <v>200</v>
-      </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>200</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="W102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="Y102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>200</v>
-      </c>
       <c r="AA102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ISGN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,13 +792,13 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
@@ -806,10 +813,10 @@
         <v>300</v>
       </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
@@ -827,26 +834,26 @@
         <v>200</v>
       </c>
       <c r="S8" s="3">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
+        <v>200</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>200</v>
-      </c>
-      <c r="U8" s="3">
-        <v>200</v>
-      </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>200</v>
-      </c>
       <c r="Z8" s="3">
         <v>200</v>
       </c>
@@ -856,13 +863,19 @@
       <c r="AB8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -871,49 +884,49 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -934,21 +947,27 @@
         <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>200</v>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -957,16 +976,16 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -975,13 +994,13 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -999,14 +1018,14 @@
         <v>200</v>
       </c>
       <c r="W10" s="3">
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>200</v>
-      </c>
       <c r="Z10" s="3">
         <v>200</v>
       </c>
@@ -1014,10 +1033,16 @@
         <v>200</v>
       </c>
       <c r="AB10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,19 +1071,21 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1070,7 +1097,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1082,7 +1109,7 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1091,28 +1118,28 @@
         <v>200</v>
       </c>
       <c r="Q12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
       </c>
       <c r="U12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
       </c>
       <c r="W12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y12" s="3">
         <v>300</v>
@@ -1121,13 +1148,19 @@
         <v>300</v>
       </c>
       <c r="AA12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AB12" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1250,32 +1289,32 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>600</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>600</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,49 +1444,51 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -1456,67 +1509,73 @@
         <v>400</v>
       </c>
       <c r="W17" s="3">
+        <v>400</v>
+      </c>
+      <c r="X17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>800</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>900</v>
       </c>
       <c r="AB17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
@@ -1524,37 +1583,43 @@
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
-      </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-700</v>
       </c>
       <c r="AB18" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1601,28 +1668,28 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1652,61 +1719,67 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
@@ -1720,31 +1793,37 @@
         <v>-200</v>
       </c>
       <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1794,10 +1873,10 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1823,52 +1902,58 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
@@ -1877,34 +1962,40 @@
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1950,15 +2041,15 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1968,11 +2059,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>10</v>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>10</v>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,52 +2160,58 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-200</v>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
@@ -2117,78 +2220,84 @@
         <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-200</v>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
@@ -2197,34 +2306,40 @@
         <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2561,29 +2700,29 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2612,63 +2751,69 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>100</v>
-      </c>
       <c r="AB32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-200</v>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
@@ -2677,34 +2822,40 @@
         <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,52 +2934,58 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-200</v>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
@@ -2837,119 +2994,131 @@
         <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
         <v>400</v>
       </c>
-      <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3204,52 +3389,58 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3376,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3388,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3400,31 +3597,37 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
-      </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
@@ -3432,64 +3635,70 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
-        <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
-        <v>200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
-      </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3717,19 +3938,25 @@
         <v>0</v>
       </c>
       <c r="Y49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC49" s="3">
         <v>300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,25 +4293,31 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
-        <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
-      </c>
       <c r="H54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
@@ -4075,61 +4326,67 @@
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
-        <v>200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
-        <v>200</v>
-      </c>
-      <c r="V54" s="3">
-        <v>200</v>
-      </c>
       <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4221,22 +4482,22 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>1100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1200</v>
       </c>
       <c r="P57" s="3">
         <v>1200</v>
       </c>
       <c r="Q57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="R57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S57" s="3">
         <v>1300</v>
@@ -4260,57 +4521,63 @@
         <v>1300</v>
       </c>
       <c r="Z57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="AA57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="AB57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3000</v>
       </c>
       <c r="H58" s="3">
         <v>2900</v>
       </c>
       <c r="I58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2200</v>
       </c>
       <c r="Q58" s="3">
         <v>2200</v>
@@ -4322,23 +4589,23 @@
         <v>2200</v>
       </c>
       <c r="T58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V58" s="3">
         <v>1800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
@@ -4346,158 +4613,170 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2100</v>
       </c>
       <c r="J59" s="3">
         <v>2000</v>
       </c>
       <c r="K59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1100</v>
       </c>
       <c r="Q59" s="3">
         <v>1200</v>
       </c>
       <c r="R59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1300</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1100</v>
       </c>
       <c r="Z59" s="3">
         <v>1200</v>
       </c>
       <c r="AA59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>4600</v>
       </c>
       <c r="Q60" s="3">
         <v>4700</v>
       </c>
       <c r="R60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="T60" s="3">
         <v>4500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>4400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>4700</v>
       </c>
       <c r="U60" s="3">
         <v>4400</v>
       </c>
       <c r="V60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="W60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="X60" s="3">
         <v>4100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4000</v>
-      </c>
-      <c r="X60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>2400</v>
       </c>
       <c r="Z60" s="3">
         <v>2500</v>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4535,19 +4820,19 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4574,102 +4859,114 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>700</v>
       </c>
-      <c r="AB61" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
       </c>
       <c r="I62" s="3">
+        <v>600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>900</v>
       </c>
       <c r="M62" s="3">
+        <v>700</v>
+      </c>
+      <c r="N62" s="3">
+        <v>900</v>
+      </c>
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>600</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
       </c>
       <c r="R62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S62" s="3">
         <v>700</v>
       </c>
       <c r="T62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
       </c>
       <c r="W62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA62" s="3">
         <v>300</v>
       </c>
       <c r="AB62" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD62" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,49 +5217,55 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>5400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>5200</v>
       </c>
       <c r="Q66" s="3">
         <v>5400</v>
@@ -4959,37 +5274,43 @@
         <v>5200</v>
       </c>
       <c r="S66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U66" s="3">
         <v>5100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>2900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-136700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-136300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-136100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-135900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-135700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-135600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-135600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-135400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-135200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-135200</v>
       </c>
       <c r="M72" s="3">
         <v>-135200</v>
       </c>
       <c r="N72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-135000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-134700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-134400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-134100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-133900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-133600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-133400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-133200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-132800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-132600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-131800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-131400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-131200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-130600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-129800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-5900</v>
       </c>
       <c r="K76" s="3">
         <v>-5700</v>
       </c>
       <c r="L76" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="M76" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="N76" s="3">
         <v>-5600</v>
       </c>
       <c r="O76" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-4300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-4000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-3800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,137 +6195,149 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-200</v>
+      <c r="D81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
@@ -5957,34 +6346,40 @@
         <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6040,17 +6437,17 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>-300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -6079,10 +6476,10 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,55 +6935,55 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>200</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
-      </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
@@ -6562,19 +6995,25 @@
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AA89" s="3">
         <v>-600</v>
       </c>
       <c r="AB89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6629,11 +7070,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
@@ -6641,11 +7082,11 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6653,11 +7094,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>10</v>
@@ -6665,11 +7106,11 @@
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6906,14 +7365,14 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>300</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,79 +7773,85 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
       <c r="I100" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R100" s="3" t="s">
+      <c r="T100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>800</v>
       </c>
-      <c r="AB100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-200</v>
-      </c>
       <c r="J102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
-        <v>200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>-200</v>
       </c>
       <c r="Y102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISGN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ISGN</t>
   </si>
@@ -874,8 +874,8 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -960,8 +960,8 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
+      <c r="D10" s="3">
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
@@ -2171,8 +2171,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2257,8 +2257,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2773,8 +2773,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2945,8 +2945,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -6297,8 +6297,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
